--- a/data/simulated_data/case3_mse_min.xlsx
+++ b/data/simulated_data/case3_mse_min.xlsx
@@ -486,42 +486,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>% Decrease relative to RP full</t>
+          <t>% Decrease relative to RP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t xml:space="preserve">   0.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>95.64</t>
+          <t xml:space="preserve">  35.26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.20</t>
+          <t xml:space="preserve">  58.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.97</t>
+          <t xml:space="preserve">  84.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t xml:space="preserve">  25.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>82.13</t>
+          <t>-165.20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>99.63</t>
+          <t xml:space="preserve">  94.57</t>
         </is>
       </c>
     </row>
